--- a/wifiguestlist.xlsx
+++ b/wifiguestlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhammadfadlyhidayat/Documents/ibm/Watsonx/Working_Project/60_Protelindo/workshop-telco-tower-ai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DC311EE-5D3A-0547-9019-C7F05D8E8D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D04CD57-4B2C-7643-87DA-8EE0809EFBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{24793E95-EF19-B14B-9236-1FC404B99BD6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Wifi Access</t>
   </si>
@@ -138,19 +138,34 @@
   </si>
   <si>
     <t>a4tii8gi</t>
+  </si>
+  <si>
+    <t>Clinton Alley</t>
+  </si>
+  <si>
+    <t>calley01</t>
+  </si>
+  <si>
+    <t>5h94a7c7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="IBM Plex Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -214,15 +229,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F3F72F-1519-C34D-B615-69273A3426C8}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,119 +605,130 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
+      <c r="A3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
